--- a/TestNG Practise.xlsx
+++ b/TestNG Practise.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="HomePage" sheetId="1" r:id="rId1"/>
+    <sheet name="Mot_SelPriceOption" sheetId="2" r:id="rId2"/>
+    <sheet name="Mot_SendQuote" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="192">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -109,13 +109,496 @@
   </si>
   <si>
     <t>TRICENTIS_HOME_013</t>
+  </si>
+  <si>
+    <t>Verify that Next button is clickable and navigating to the correct page.</t>
+  </si>
+  <si>
+    <t>Verify that Previous button is clickable and navigating to the correct page.</t>
+  </si>
+  <si>
+    <t>Verify that VIEW QUOTE is present on the Select Price Option page after clicking on the one of the Radio button.</t>
+  </si>
+  <si>
+    <t>Verify that DOWNLOAD QUOTE is present on the Select Price Option page after clicking on the one of the Radio button.</t>
+  </si>
+  <si>
+    <t>Verify that Send Quote is present on the Motorcycle Insurance page.</t>
+  </si>
+  <si>
+    <t>Verify that Select Price Option is present on the Motorcycle Insurance page.</t>
+  </si>
+  <si>
+    <t>Verify that Phone is present on the Send Quote.</t>
+  </si>
+  <si>
+    <t>Verify that Username is present on the Send Quote.</t>
+  </si>
+  <si>
+    <t>Verify that Password is present on the Send Quote.</t>
+  </si>
+  <si>
+    <t>Verify that Confirm Password is present on the Send Quote.</t>
+  </si>
+  <si>
+    <t>Verify that Comments is present on the Send Quote.</t>
+  </si>
+  <si>
+    <t>Verify that E-Mail is present  on the Send Quote.</t>
+  </si>
+  <si>
+    <t>Verify that E-Mail is clickable  on the Send Quote.</t>
+  </si>
+  <si>
+    <t>Verify that Phone is clickable on the Send Quote.</t>
+  </si>
+  <si>
+    <t>Verify that Username is clickable on the Send Quote.</t>
+  </si>
+  <si>
+    <t>Verify that Password is clickable on the Send Quote.</t>
+  </si>
+  <si>
+    <t>Verify that Confirm Password is clickable on the Send Quote.</t>
+  </si>
+  <si>
+    <t>Verify that Comments is clickable on the Send Quote.</t>
+  </si>
+  <si>
+    <t>Verify that E-Mail must be at least a valid email format.</t>
+  </si>
+  <si>
+    <t>Verify that Phone must be numbers(0-9).</t>
+  </si>
+  <si>
+    <t>Verify that Username must be between 4 and 32 characters long and start with a letter. You may use letters, numbers, underscores, and one dot.</t>
+  </si>
+  <si>
+    <t>Verify that Confirm Password must have the same value as the Password field.</t>
+  </si>
+  <si>
+    <t>Verify that Comments must be under 300 characters.</t>
+  </si>
+  <si>
+    <t>Verify that Send button is clickable and navigating to the correct page.</t>
+  </si>
+  <si>
+    <t>//a[@id='selectpriceoption']</t>
+  </si>
+  <si>
+    <t>Verify that Price per Year ($) is present on the Price Table.</t>
+  </si>
+  <si>
+    <t>Verify that Online Claim is present on the Price Table.</t>
+  </si>
+  <si>
+    <t>Verify that Claims Discount (%) is present on the Price Table.</t>
+  </si>
+  <si>
+    <t>Verify that Worldwide Cover is present on the Price Table.</t>
+  </si>
+  <si>
+    <t>Verify that Select Option is present on the Price Table.</t>
+  </si>
+  <si>
+    <t>Verify that Silver is present on the Price Table.</t>
+  </si>
+  <si>
+    <t>Verify that Gold is present on the Price Table.</t>
+  </si>
+  <si>
+    <t>Verify that Platinum is present on the Price Table.</t>
+  </si>
+  <si>
+    <t>Verify that Ultimate is present on the Price Table.</t>
+  </si>
+  <si>
+    <t>Verify that Select at least 1 options (i.e., *) is present on the Price Table.</t>
+  </si>
+  <si>
+    <t>Verify that Radio button is clickable on Silver Column in the Select Option Row of Price Table.</t>
+  </si>
+  <si>
+    <t>Verify that Radio button is clickable on Gold Column in the Select Option Row of Price Table.</t>
+  </si>
+  <si>
+    <t>Verify that Radio button is clickable on Platinum Column in the Select Option Row of Price Table.</t>
+  </si>
+  <si>
+    <t>Verify that Radio button is clickable on Ultimate Column in the Select Option Row of Price Table..</t>
+  </si>
+  <si>
+    <t>//input[@id='selectsilver']</t>
+  </si>
+  <si>
+    <t>//input[@id='selectgold']</t>
+  </si>
+  <si>
+    <t>//input[@id='selectplatinum']</t>
+  </si>
+  <si>
+    <t>//input[@id='selectultimate']</t>
+  </si>
+  <si>
+    <t>//table[@id='priceTable']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//th[text()='Silver'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//th[text()='Gold'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//th[text()='Platinum'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//th[text()='Ultimate'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//td[text()='Price per Year ($)'] </t>
+  </si>
+  <si>
+    <t>//td[text()='Online Claim']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//td[text()='Claims Discount (%)'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//td[text()='Worldwide Cover'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//th[text()='Select Option'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[text()='View Quote'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[text()='Download Quote'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//button[@id='nextsendquote'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//button[@id='preventerproductdata'] </t>
+  </si>
+  <si>
+    <t>XPath</t>
+  </si>
+  <si>
+    <t>Radio button only once</t>
+  </si>
+  <si>
+    <t>Verify that Password must be at least 6 characters long, and contain at least one number, one uppercase and one lowercase letter. [As we can see that there is a minimum length of characters for the password is required, which is at least 6 characters are required. So we can make use of test design technique Boundary Value Analysis (BVA), as we have minimum criteria of 8 characters so we can test with lengths 5, 6 and 7 characters.]</t>
+  </si>
+  <si>
+    <t>Verify without providing any phone number in the field, as it is also mandatory field so user should not be able to proceed and complete the registration without providing phone number.</t>
+  </si>
+  <si>
+    <t>Verify with providing invalid phone number ( phone number with 2-3 digit), in this case also user should not be able to proceed and complete the registration with invalid providing phone number.</t>
+  </si>
+  <si>
+    <t>Verify with providing valid phone number in the field, in this case the user should be able to register successfully with valid phone number (considering user has provided all other information correctly).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verify without providing any details in the Email field, it should not be allowed to register without any email ID and should give a respective error message.</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_001</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_002</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_003</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_004</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_005</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_006</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_007</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_008</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_009</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_010</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_011</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_012</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_013</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_014</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_015</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_016</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_017</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_018</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_019</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_020</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_021</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_022</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_023</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_024</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_025</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_026</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_027</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_028</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_029</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_030</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_031</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_032</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_033</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_034</t>
+  </si>
+  <si>
+    <t>//a[@id='sendquote']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//label[text()='E-Mail'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//label[text()='Phone'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//label[text()='Username'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//label[text()='Password'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//label[text()='Confirm Password'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//label[text()='Comments'] </t>
+  </si>
+  <si>
+    <t>Verify that Send E-Mail is present on the Send Quote.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//button[@id='sendemail'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//button[@id='prevselectpriceoption'] </t>
+  </si>
+  <si>
+    <t>Verify that Prev (Select Price Option) is present on the Send Quote.</t>
+  </si>
+  <si>
+    <t>//div[text()='Main page']</t>
+  </si>
+  <si>
+    <t>Verify that Main page is present on the Send Quote.</t>
+  </si>
+  <si>
+    <t>Verify that New Automobile Insurance is present on the Send Quote.</t>
+  </si>
+  <si>
+    <t>//div[text()='New Automobile Insurance']</t>
+  </si>
+  <si>
+    <t>//div[text()='New Truck Insurance']</t>
+  </si>
+  <si>
+    <t>Verify that New Truck Insurance is present on the Send Quote.</t>
+  </si>
+  <si>
+    <t>//div[text()='New Motorcycle Insurance']</t>
+  </si>
+  <si>
+    <t>Verify that New Motorcycle Insurance is present on the Send Quote.</t>
+  </si>
+  <si>
+    <t>//div[text()='New Camper Insurance']</t>
+  </si>
+  <si>
+    <t>Verify that New Camper Insurance is present on the Send Quote.</t>
+  </si>
+  <si>
+    <t>Verify that Main page is clickable and navigating to the correct page.</t>
+  </si>
+  <si>
+    <t>Verify that New Automobile Insurance is clickable and navigating to the correct page.</t>
+  </si>
+  <si>
+    <t>Verify that New Truck Insurance is clickable and navigating to the correct page.</t>
+  </si>
+  <si>
+    <t>Verify that New Motorcycle Insurance is clickable and navigating to the correct page.</t>
+  </si>
+  <si>
+    <t>Verify that New Camper Insurance is clickable and navigating to the correct page.</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_035</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_036</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_037</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_038</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_039</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_040</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SENDQUOTE_041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@id='email'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@id='username'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@id='password'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//input[@id='confirmpassword'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">//textarea[@id='Comments'] </t>
+  </si>
+  <si>
+    <t>Check When it is less than 5 then it should give the error to the user and user can proceed to complete the registration process(considering user has provided all other information correctly).</t>
+  </si>
+  <si>
+    <t>Check When it is 6 then it should be possible for the user to complete the registration process successfully without any error. (considering user has provided all other information correctly).</t>
+  </si>
+  <si>
+    <t>Check When it is 7 then also it should be possible for the user to complete the registration process successfully without any error. (considering user has provided all other information correctly).</t>
+  </si>
+  <si>
+    <t>Check Verify without providing any password in the Desired Password field, it should give the respected error message to provide the password.</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SELECTPRICEOPTION_001</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SELECTPRICEOPTION_002</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SELECTPRICEOPTION_003</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SELECTPRICEOPTION_004</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SELECTPRICEOPTION_005</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SELECTPRICEOPTION_006</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SELECTPRICEOPTION_007</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SELECTPRICEOPTION_008</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SELECTPRICEOPTION_009</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SELECTPRICEOPTION_010</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SELECTPRICEOPTION_011</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SELECTPRICEOPTION_012</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SELECTPRICEOPTION_013</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SELECTPRICEOPTION_014</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SELECTPRICEOPTION_015</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SELECTPRICEOPTION_016</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SELECTPRICEOPTION_017</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SELECTPRICEOPTION_018</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SELECTPRICEOPTION_019</t>
+  </si>
+  <si>
+    <t>TVIA_MOT._SELECTPRICEOPTION_020</t>
+  </si>
+  <si>
+    <t>//input[@id='phone']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,13 +614,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,9 +648,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,13 +957,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="76.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
   </cols>
@@ -598,24 +1097,679 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="79.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>